--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533990\Downloads\dotnet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533990\Documents\44663\MVC-Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
   <si>
     <t>ACS+2</t>
   </si>
@@ -179,93 +179,9 @@
     <t>Summer 2018</t>
   </si>
   <si>
-    <t>S533991</t>
-  </si>
-  <si>
-    <t>S533992</t>
-  </si>
-  <si>
-    <t>S533993</t>
-  </si>
-  <si>
-    <t>S533994</t>
-  </si>
-  <si>
     <t>Summer Off</t>
   </si>
   <si>
-    <t>S511111</t>
-  </si>
-  <si>
-    <t>S511112</t>
-  </si>
-  <si>
-    <t>S511113</t>
-  </si>
-  <si>
-    <t>S511114</t>
-  </si>
-  <si>
-    <t>S511115</t>
-  </si>
-  <si>
-    <t>S511116</t>
-  </si>
-  <si>
-    <t>S511117</t>
-  </si>
-  <si>
-    <t>S511118</t>
-  </si>
-  <si>
-    <t>Man</t>
-  </si>
-  <si>
-    <t>Can</t>
-  </si>
-  <si>
-    <t>Tan</t>
-  </si>
-  <si>
-    <t>Chan</t>
-  </si>
-  <si>
-    <t>Flan</t>
-  </si>
-  <si>
-    <t>Clan</t>
-  </si>
-  <si>
-    <t>Tlan</t>
-  </si>
-  <si>
-    <t>Mlan</t>
-  </si>
-  <si>
-    <t>Bun</t>
-  </si>
-  <si>
-    <t>Hyn</t>
-  </si>
-  <si>
-    <t>Sus</t>
-  </si>
-  <si>
-    <t>Chin</t>
-  </si>
-  <si>
-    <t>Kin</t>
-  </si>
-  <si>
-    <t>Jlin</t>
-  </si>
-  <si>
-    <t>Fin</t>
-  </si>
-  <si>
-    <t>Flin</t>
-  </si>
-  <si>
     <t>DegreeID(PK)</t>
   </si>
   <si>
@@ -296,10 +212,49 @@
     <t>StudentID(PK)</t>
   </si>
   <si>
-    <t>StudentId(PK)</t>
-  </si>
-  <si>
     <t>TermID(FK)</t>
+  </si>
+  <si>
+    <t>S531366</t>
+  </si>
+  <si>
+    <t>S533710</t>
+  </si>
+  <si>
+    <t>S533626</t>
+  </si>
+  <si>
+    <t>S531383</t>
+  </si>
+  <si>
+    <t>Hari Priya</t>
+  </si>
+  <si>
+    <t>Jupally</t>
+  </si>
+  <si>
+    <t>Bharadwaj</t>
+  </si>
+  <si>
+    <t>Dasari</t>
+  </si>
+  <si>
+    <t>Durga Susmitha</t>
+  </si>
+  <si>
+    <t>Kotyada</t>
+  </si>
+  <si>
+    <t>Hyndavi</t>
+  </si>
+  <si>
+    <t>Musipatla</t>
+  </si>
+  <si>
+    <t>Vyshnavi</t>
+  </si>
+  <si>
+    <t>Yalamareddy</t>
   </si>
 </sst>
 </file>
@@ -629,7 +584,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
@@ -702,7 +657,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
@@ -876,13 +831,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1435,13 +1390,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2507,10 +2462,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2523,13 +2478,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
         <v>36</v>
@@ -2540,13 +2495,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>38</v>
@@ -2557,19 +2512,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2580,7 +2535,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
         <v>38</v>
@@ -2597,24 +2552,24 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
         <v>38</v>
@@ -2625,30 +2580,30 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
         <v>38</v>
@@ -2659,19 +2614,53 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2681,9 +2670,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2696,7 +2687,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
         <v>39</v>
@@ -2710,114 +2701,60 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D2">
-        <v>919534873</v>
+        <v>919569151</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3">
-        <v>919534873</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4">
-        <v>919534873</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5">
-        <v>919534873</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
-      </c>
-      <c r="D6">
-        <v>919534873</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7">
-        <v>919534873</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8">
-        <v>919534873</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9">
-        <v>919534873</v>
       </c>
     </row>
   </sheetData>
@@ -2830,7 +2767,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2840,10 +2777,10 @@
         <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
         <v>43</v>
@@ -2868,7 +2805,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2882,7 +2819,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2896,7 +2833,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -2910,7 +2847,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C6">
         <v>5</v>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
   <si>
     <t>ACS+2</t>
   </si>
@@ -149,12 +149,6 @@
     <t>No Summer Off</t>
   </si>
   <si>
-    <t>First</t>
-  </si>
-  <si>
-    <t>Last</t>
-  </si>
-  <si>
     <t>S533990</t>
   </si>
   <si>
@@ -203,9 +197,6 @@
     <t>TermID(PK)</t>
   </si>
   <si>
-    <t>RequuirementID(FK)</t>
-  </si>
-  <si>
     <t>StudentID(FK)</t>
   </si>
   <si>
@@ -255,19 +246,32 @@
   </si>
   <si>
     <t>Yalamareddy</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -290,8 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,7 +579,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -582,14 +589,14 @@
     <col min="3" max="3" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -646,7 +653,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -655,14 +664,14 @@
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -819,7 +828,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,15 +838,15 @@
     <col min="3" max="3" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1378,7 +1387,7 @@
   <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,15 +1397,15 @@
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>57</v>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2464,8 +2473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2476,20 +2485,20 @@
     <col min="5" max="5" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2501,7 +2510,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>38</v>
@@ -2518,13 +2527,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2535,7 +2544,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
         <v>38</v>
@@ -2552,13 +2561,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2569,7 +2578,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
         <v>38</v>
@@ -2586,13 +2595,13 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2603,7 +2612,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
         <v>38</v>
@@ -2620,13 +2629,13 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2637,7 +2646,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
@@ -2654,13 +2663,13 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2673,7 +2682,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2686,79 +2695,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1">
         <v>919</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>41</v>
+      <c r="A2">
+        <v>533990</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <v>919569151</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>61</v>
+      <c r="A3">
+        <v>531366</v>
       </c>
       <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3">
+        <v>919559663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>533710</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
         <v>67</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4">
+        <v>919570698</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>533626</v>
+      </c>
+      <c r="B5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
         <v>69</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5">
+        <v>919570835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>531383</v>
+      </c>
+      <c r="B6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>71</v>
       </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" t="s">
-        <v>74</v>
+      <c r="D6">
+        <v>919562271</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2766,94 +2788,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>41</v>
+      <c r="B2">
+        <v>533990</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>61</v>
+      <c r="B3">
+        <v>531366</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>62</v>
+      <c r="B4">
+        <v>533710</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>63</v>
+      <c r="B5">
+        <v>533626</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>64</v>
+      <c r="B6">
+        <v>531383</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>ACS+2</t>
   </si>
@@ -149,9 +149,6 @@
     <t>No Summer Off</t>
   </si>
   <si>
-    <t>S533990</t>
-  </si>
-  <si>
     <t>StudentTerm</t>
   </si>
   <si>
@@ -204,18 +201,6 @@
   </si>
   <si>
     <t>TermID(FK)</t>
-  </si>
-  <si>
-    <t>S531366</t>
-  </si>
-  <si>
-    <t>S533710</t>
-  </si>
-  <si>
-    <t>S533626</t>
-  </si>
-  <si>
-    <t>S531383</t>
   </si>
   <si>
     <t>Hari Priya</t>
@@ -591,7 +576,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -666,7 +651,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>24</v>
@@ -840,13 +825,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1399,13 +1384,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2473,27 +2458,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>36</v>
@@ -2509,8 +2493,8 @@
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>39</v>
+      <c r="C2">
+        <v>533990</v>
       </c>
       <c r="D2" t="s">
         <v>38</v>
@@ -2526,14 +2510,14 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>39</v>
+      <c r="C3">
+        <v>533990</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2543,8 +2527,8 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>58</v>
+      <c r="C4">
+        <v>531366</v>
       </c>
       <c r="D4" t="s">
         <v>38</v>
@@ -2560,14 +2544,14 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>58</v>
+      <c r="C5">
+        <v>531366</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2577,8 +2561,8 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>59</v>
+      <c r="C6">
+        <v>533710</v>
       </c>
       <c r="D6" t="s">
         <v>38</v>
@@ -2594,14 +2578,14 @@
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>59</v>
+      <c r="C7">
+        <v>533710</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2611,8 +2595,8 @@
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>60</v>
+      <c r="C8">
+        <v>533626</v>
       </c>
       <c r="D8" t="s">
         <v>38</v>
@@ -2628,14 +2612,14 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>60</v>
+      <c r="C9">
+        <v>533626</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2645,8 +2629,8 @@
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>61</v>
+      <c r="C10">
+        <v>531383</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
@@ -2662,14 +2646,14 @@
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
-        <v>61</v>
+      <c r="C11">
+        <v>531383</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2696,13 +2680,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1">
         <v>919</v>
@@ -2713,10 +2697,10 @@
         <v>533990</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D2">
         <v>919569151</v>
@@ -2727,10 +2711,10 @@
         <v>531366</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>919559663</v>
@@ -2741,10 +2725,10 @@
         <v>533710</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D4">
         <v>919570698</v>
@@ -2755,10 +2739,10 @@
         <v>533626</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D5">
         <v>919570835</v>
@@ -2769,10 +2753,10 @@
         <v>531383</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D6">
         <v>919562271</v>
@@ -2800,16 +2784,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2823,7 +2807,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2837,7 +2821,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2851,7 +2835,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2865,7 +2849,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2879,7 +2863,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,6 @@
     <t>MS ACS + DB</t>
   </si>
   <si>
-    <t>DegreeAbbrev(U, max 6)</t>
-  </si>
-  <si>
-    <t>DegreeName(U, max 20)</t>
-  </si>
-  <si>
     <t>DB</t>
   </si>
   <si>
@@ -149,9 +143,6 @@
     <t>Summer Off</t>
   </si>
   <si>
-    <t>DegreeID(PK)</t>
-  </si>
-  <si>
     <t>RequirementID(PK)</t>
   </si>
   <si>
@@ -173,9 +164,6 @@
     <t>StudentID(FK)</t>
   </si>
   <si>
-    <t>StudentID(PK)</t>
-  </si>
-  <si>
     <t>TermID(FK)</t>
   </si>
   <si>
@@ -222,6 +210,18 @@
   </si>
   <si>
     <t>str</t>
+  </si>
+  <si>
+    <t>StudentID</t>
+  </si>
+  <si>
+    <t>DegreeID</t>
+  </si>
+  <si>
+    <t>DegreeAbbrev</t>
+  </si>
+  <si>
+    <t>DegreeName</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -563,19 +563,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -589,11 +589,11 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E2" t="str">
         <f>D2&amp;$A$1&amp;"="&amp;A2&amp;", "&amp;$B$1&amp;"='"&amp;B2&amp;"', "&amp;$C$1&amp;"='"&amp;C2&amp;"'},"</f>
-        <v>new Degree{DegreeID(PK)=2, DegreeAbbrev(U, max 6)='ACS+DB', DegreeName(U, max 20)='MS ACS + DB'},</v>
+        <v>new Degree{DegreeID=2, DegreeAbbrev='ACS+DB', DegreeName='MS ACS + DB'},</v>
       </c>
     </row>
   </sheetData>
@@ -618,13 +618,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -632,10 +632,10 @@
         <v>460</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -643,10 +643,10 @@
         <v>542</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -654,10 +654,10 @@
         <v>563</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -665,10 +665,10 @@
         <v>560</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -676,10 +676,10 @@
         <v>555</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -687,10 +687,10 @@
         <v>618</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -698,10 +698,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -709,10 +709,10 @@
         <v>664</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -720,10 +720,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -731,10 +731,10 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -742,10 +742,10 @@
         <v>691</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -753,10 +753,10 @@
         <v>692</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -781,13 +781,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -944,13 +944,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1239,19 +1239,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1265,10 +1265,10 @@
         <v>533990</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1282,10 +1282,10 @@
         <v>533990</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1299,10 +1299,10 @@
         <v>531366</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1316,10 +1316,10 @@
         <v>531366</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1333,10 +1333,10 @@
         <v>533710</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1350,10 +1350,10 @@
         <v>533710</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1367,10 +1367,10 @@
         <v>533626</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1384,10 +1384,10 @@
         <v>533626</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1401,10 +1401,10 @@
         <v>531383</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1418,10 +1418,10 @@
         <v>531383</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1431,10 +1431,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,91 +1443,111 @@
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="86.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1">
         <v>919</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>533990</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D2">
         <v>919569151</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="str">
+        <f>CONCATENATE("new Student{","StudentID=",A:A,",","FirstName=''",B:B,"''",",","LastName=''",C:C,"''",",",,,"919=",D:D,,"}",",")</f>
+        <v>new Student{StudentID=533990,FirstName=''Hari Priya'',LastName=''Jupally'',919=919569151},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>531366</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>919559663</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E6" si="0">CONCATENATE("new Student{","StudentID=",A:A,",","FirstName=''",B:B,"''",",","LastName=''",C:C,"''",",",,,"919=",D:D,,"}",",")</f>
+        <v>new Student{StudentID=531366,FirstName=''Bharadwaj'',LastName=''Dasari'',919=919559663},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>533710</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>919570698</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>new Student{StudentID=533710,FirstName=''Durga Susmitha'',LastName=''Kotyada'',919=919570698},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>533626</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D5">
         <v>919570835</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>new Student{StudentID=533626,FirstName=''Hyndavi'',LastName=''Musipatla'',919=919570835},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>531383</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D6">
         <v>919562271</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>new Student{StudentID=531383,FirstName=''Vyshnavi'',LastName=''Yalamareddy'',919=919562271},</v>
       </c>
     </row>
   </sheetData>
@@ -1554,16 +1574,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1577,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1591,7 +1611,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1605,7 +1625,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1619,7 +1639,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1633,7 +1653,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1647,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1661,7 +1681,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1675,7 +1695,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1689,7 +1709,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1703,7 +1723,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1717,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1731,7 +1751,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1745,7 +1765,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1759,7 +1779,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1773,7 +1793,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1787,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1801,7 +1821,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1815,7 +1835,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1829,7 +1849,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1843,7 +1863,7 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1857,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1871,7 +1891,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1885,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1899,7 +1919,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1913,7 +1933,7 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533990\Documents\44663\MVC-Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531366\Documents\44663\MVC-Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
   <si>
     <t>ACS+DB</t>
   </si>
@@ -146,9 +146,6 @@
     <t>RequirementID(PK)</t>
   </si>
   <si>
-    <t>DegreeRequirementID(PK)</t>
-  </si>
-  <si>
     <t>DegreeID(FK)</t>
   </si>
   <si>
@@ -222,6 +219,12 @@
   </si>
   <si>
     <t>DegreeName</t>
+  </si>
+  <si>
+    <t>RequirementID</t>
+  </si>
+  <si>
+    <t>DegreeRequirementID</t>
   </si>
 </sst>
 </file>
@@ -549,7 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -563,19 +566,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -589,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" t="str">
         <f>D2&amp;$A$1&amp;"="&amp;A2&amp;", "&amp;$B$1&amp;"='"&amp;B2&amp;"', "&amp;$C$1&amp;"='"&amp;C2&amp;"'},"</f>
@@ -766,10 +769,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,20 +780,21 @@
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="81.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -800,8 +804,12 @@
       <c r="C2">
         <v>460</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="str">
+        <f>CONCATENATE("new DegreeRequirement{","DegreeRequirementID=",A:A,",","DegreeID=",B:B,",","RequirementID=",C:C,"},")</f>
+        <v>new DegreeRequirement{DegreeRequirementID=1,DegreeID=2,RequirementID=460},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -811,8 +819,12 @@
       <c r="C3">
         <v>542</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="str">
+        <f>CONCATENATE("new DegreeRequirement{","DegreeRequirementID=",A:A,",","DegreeID=",B:B,",","RequirementID=",C:C,"},")</f>
+        <v>new DegreeRequirement{DegreeRequirementID=2,DegreeID=2,RequirementID=542},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -822,8 +834,12 @@
       <c r="C4">
         <v>563</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="str">
+        <f>CONCATENATE("new DegreeRequirement{","DegreeRequirementID=",A:A,",","DegreeID=",B:B,",","RequirementID=",C:C,"},")</f>
+        <v>new DegreeRequirement{DegreeRequirementID=3,DegreeID=2,RequirementID=563},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -833,8 +849,12 @@
       <c r="C5">
         <v>560</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="str">
+        <f>CONCATENATE("new DegreeRequirement{","DegreeRequirementID=",A:A,",","DegreeID=",B:B,",","RequirementID=",C:C,"},")</f>
+        <v>new DegreeRequirement{DegreeRequirementID=4,DegreeID=2,RequirementID=560},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -844,8 +864,12 @@
       <c r="C6">
         <v>555</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="str">
+        <f>CONCATENATE("new DegreeRequirement{","DegreeRequirementID=",A:A,",","DegreeID=",B:B,",","RequirementID=",C:C,"},")</f>
+        <v>new DegreeRequirement{DegreeRequirementID=5,DegreeID=2,RequirementID=555},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -855,8 +879,12 @@
       <c r="C7">
         <v>618</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="str">
+        <f>CONCATENATE("new DegreeRequirement{","DegreeRequirementID=",A:A,",","DegreeID=",B:B,",","RequirementID=",C:C,"},")</f>
+        <v>new DegreeRequirement{DegreeRequirementID=6,DegreeID=2,RequirementID=618},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -866,8 +894,12 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="str">
+        <f>CONCATENATE("new DegreeRequirement{","DegreeRequirementID=",A:A,",","DegreeID=",B:B,",","RequirementID=",C:C,"},")</f>
+        <v>new DegreeRequirement{DegreeRequirementID=7,DegreeID=2,RequirementID=1},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -877,8 +909,12 @@
       <c r="C9">
         <v>664</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="str">
+        <f>CONCATENATE("new DegreeRequirement{","DegreeRequirementID=",A:A,",","DegreeID=",B:B,",","RequirementID=",C:C,"},")</f>
+        <v>new DegreeRequirement{DegreeRequirementID=8,DegreeID=2,RequirementID=664},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -888,8 +924,12 @@
       <c r="C10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="str">
+        <f>CONCATENATE("new DegreeRequirement{","DegreeRequirementID=",A:A,",","DegreeID=",B:B,",","RequirementID=",C:C,"},")</f>
+        <v>new DegreeRequirement{DegreeRequirementID=9,DegreeID=2,RequirementID=10},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -899,8 +939,12 @@
       <c r="C11">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="str">
+        <f>CONCATENATE("new DegreeRequirement{","DegreeRequirementID=",A:A,",","DegreeID=",B:B,",","RequirementID=",C:C,"},")</f>
+        <v>new DegreeRequirement{DegreeRequirementID=10,DegreeID=2,RequirementID=20},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -910,8 +954,12 @@
       <c r="C12">
         <v>691</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="str">
+        <f>CONCATENATE("new DegreeRequirement{","DegreeRequirementID=",A:A,",","DegreeID=",B:B,",","RequirementID=",C:C,"},")</f>
+        <v>new DegreeRequirement{DegreeRequirementID=11,DegreeID=2,RequirementID=691},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -920,6 +968,10 @@
       </c>
       <c r="C13">
         <v>692</v>
+      </c>
+      <c r="D13" t="str">
+        <f>CONCATENATE("new DegreeRequirement{","DegreeRequirementID=",A:A,",","DegreeID=",B:B,",","RequirementID=",C:C,"},")</f>
+        <v>new DegreeRequirement{DegreeRequirementID=12,DegreeID=2,RequirementID=692},</v>
       </c>
     </row>
   </sheetData>
@@ -944,13 +996,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1239,13 +1291,13 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
@@ -1448,13 +1500,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D1" s="1">
         <v>919</v>
@@ -1465,10 +1517,10 @@
         <v>533990</v>
       </c>
       <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
         <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
       </c>
       <c r="D2">
         <v>919569151</v>
@@ -1483,10 +1535,10 @@
         <v>531366</v>
       </c>
       <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
         <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
       </c>
       <c r="D3">
         <v>919559663</v>
@@ -1501,10 +1553,10 @@
         <v>533710</v>
       </c>
       <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
         <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
       </c>
       <c r="D4">
         <v>919570698</v>
@@ -1519,10 +1571,10 @@
         <v>533626</v>
       </c>
       <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
         <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
       </c>
       <c r="D5">
         <v>919570835</v>
@@ -1537,10 +1589,10 @@
         <v>531383</v>
       </c>
       <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
         <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
       </c>
       <c r="D6">
         <v>919562271</v>
@@ -1577,10 +1629,10 @@
         <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>30</v>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531366\Documents\44663\MVC-Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533626\Documents\44663\MVC-Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -110,12 +110,6 @@
     <t>GDP2</t>
   </si>
   <si>
-    <t>DegreePlanAbbrev(U, 8)</t>
-  </si>
-  <si>
-    <t>DegreePlanName(U, 20)</t>
-  </si>
-  <si>
     <t>No Summer Off</t>
   </si>
   <si>
@@ -146,9 +140,6 @@
     <t>RequirementID(PK)</t>
   </si>
   <si>
-    <t>DegreeID(FK)</t>
-  </si>
-  <si>
     <t>RequirementID(FK)</t>
   </si>
   <si>
@@ -225,6 +216,15 @@
   </si>
   <si>
     <t>DegreeRequirementID</t>
+  </si>
+  <si>
+    <t>DegreePlanID</t>
+  </si>
+  <si>
+    <t>DegreePlanAbbrev</t>
+  </si>
+  <si>
+    <t>DegreePlanName</t>
   </si>
 </sst>
 </file>
@@ -566,19 +566,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -592,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E2" t="str">
         <f>D2&amp;$A$1&amp;"="&amp;A2&amp;", "&amp;$B$1&amp;"='"&amp;B2&amp;"', "&amp;$C$1&amp;"='"&amp;C2&amp;"'},"</f>
@@ -621,7 +621,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
@@ -771,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,13 +785,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -805,7 +805,7 @@
         <v>460</v>
       </c>
       <c r="D2" t="str">
-        <f>CONCATENATE("new DegreeRequirement{","DegreeRequirementID=",A:A,",","DegreeID=",B:B,",","RequirementID=",C:C,"},")</f>
+        <f t="shared" ref="D2:D13" si="0">CONCATENATE("new DegreeRequirement{","DegreeRequirementID=",A:A,",","DegreeID=",B:B,",","RequirementID=",C:C,"},")</f>
         <v>new DegreeRequirement{DegreeRequirementID=1,DegreeID=2,RequirementID=460},</v>
       </c>
     </row>
@@ -820,7 +820,7 @@
         <v>542</v>
       </c>
       <c r="D3" t="str">
-        <f>CONCATENATE("new DegreeRequirement{","DegreeRequirementID=",A:A,",","DegreeID=",B:B,",","RequirementID=",C:C,"},")</f>
+        <f t="shared" si="0"/>
         <v>new DegreeRequirement{DegreeRequirementID=2,DegreeID=2,RequirementID=542},</v>
       </c>
     </row>
@@ -835,7 +835,7 @@
         <v>563</v>
       </c>
       <c r="D4" t="str">
-        <f>CONCATENATE("new DegreeRequirement{","DegreeRequirementID=",A:A,",","DegreeID=",B:B,",","RequirementID=",C:C,"},")</f>
+        <f t="shared" si="0"/>
         <v>new DegreeRequirement{DegreeRequirementID=3,DegreeID=2,RequirementID=563},</v>
       </c>
     </row>
@@ -850,7 +850,7 @@
         <v>560</v>
       </c>
       <c r="D5" t="str">
-        <f>CONCATENATE("new DegreeRequirement{","DegreeRequirementID=",A:A,",","DegreeID=",B:B,",","RequirementID=",C:C,"},")</f>
+        <f t="shared" si="0"/>
         <v>new DegreeRequirement{DegreeRequirementID=4,DegreeID=2,RequirementID=560},</v>
       </c>
     </row>
@@ -865,7 +865,7 @@
         <v>555</v>
       </c>
       <c r="D6" t="str">
-        <f>CONCATENATE("new DegreeRequirement{","DegreeRequirementID=",A:A,",","DegreeID=",B:B,",","RequirementID=",C:C,"},")</f>
+        <f t="shared" si="0"/>
         <v>new DegreeRequirement{DegreeRequirementID=5,DegreeID=2,RequirementID=555},</v>
       </c>
     </row>
@@ -880,7 +880,7 @@
         <v>618</v>
       </c>
       <c r="D7" t="str">
-        <f>CONCATENATE("new DegreeRequirement{","DegreeRequirementID=",A:A,",","DegreeID=",B:B,",","RequirementID=",C:C,"},")</f>
+        <f t="shared" si="0"/>
         <v>new DegreeRequirement{DegreeRequirementID=6,DegreeID=2,RequirementID=618},</v>
       </c>
     </row>
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="str">
-        <f>CONCATENATE("new DegreeRequirement{","DegreeRequirementID=",A:A,",","DegreeID=",B:B,",","RequirementID=",C:C,"},")</f>
+        <f t="shared" si="0"/>
         <v>new DegreeRequirement{DegreeRequirementID=7,DegreeID=2,RequirementID=1},</v>
       </c>
     </row>
@@ -910,7 +910,7 @@
         <v>664</v>
       </c>
       <c r="D9" t="str">
-        <f>CONCATENATE("new DegreeRequirement{","DegreeRequirementID=",A:A,",","DegreeID=",B:B,",","RequirementID=",C:C,"},")</f>
+        <f t="shared" si="0"/>
         <v>new DegreeRequirement{DegreeRequirementID=8,DegreeID=2,RequirementID=664},</v>
       </c>
     </row>
@@ -925,7 +925,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="str">
-        <f>CONCATENATE("new DegreeRequirement{","DegreeRequirementID=",A:A,",","DegreeID=",B:B,",","RequirementID=",C:C,"},")</f>
+        <f t="shared" si="0"/>
         <v>new DegreeRequirement{DegreeRequirementID=9,DegreeID=2,RequirementID=10},</v>
       </c>
     </row>
@@ -940,7 +940,7 @@
         <v>20</v>
       </c>
       <c r="D11" t="str">
-        <f>CONCATENATE("new DegreeRequirement{","DegreeRequirementID=",A:A,",","DegreeID=",B:B,",","RequirementID=",C:C,"},")</f>
+        <f t="shared" si="0"/>
         <v>new DegreeRequirement{DegreeRequirementID=10,DegreeID=2,RequirementID=20},</v>
       </c>
     </row>
@@ -955,7 +955,7 @@
         <v>691</v>
       </c>
       <c r="D12" t="str">
-        <f>CONCATENATE("new DegreeRequirement{","DegreeRequirementID=",A:A,",","DegreeID=",B:B,",","RequirementID=",C:C,"},")</f>
+        <f t="shared" si="0"/>
         <v>new DegreeRequirement{DegreeRequirementID=11,DegreeID=2,RequirementID=691},</v>
       </c>
     </row>
@@ -970,7 +970,7 @@
         <v>692</v>
       </c>
       <c r="D13" t="str">
-        <f>CONCATENATE("new DegreeRequirement{","DegreeRequirementID=",A:A,",","DegreeID=",B:B,",","RequirementID=",C:C,"},")</f>
+        <f t="shared" si="0"/>
         <v>new DegreeRequirement{DegreeRequirementID=12,DegreeID=2,RequirementID=692},</v>
       </c>
     </row>
@@ -996,13 +996,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1276,9 +1276,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1287,26 +1289,27 @@
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="27.140625" customWidth="1"/>
     <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="131.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>12</v>
       </c>
@@ -1317,13 +1320,17 @@
         <v>533990</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F2" t="str">
+        <f>CONCATENATE("new DegreePlan{","DegreePlanID=",A:A,",","DegreeID=",B:B,",","StudentID=",C:C,",","DegreePlanAbbrev=","''",D:D,"''",",","DegreePlanName=","''",E:E,"''","},")</f>
+        <v>new DegreePlan{DegreePlanID=12,DegreeID=2,StudentID=533990,DegreePlanAbbrev=''No Summer Off'',DegreePlanName=''No Summer Off''},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13</v>
       </c>
@@ -1334,13 +1341,17 @@
         <v>533990</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F11" si="0">CONCATENATE("new DegreePlan{","DegreePlanID=",A:A,",","DegreeID=",B:B,",","StudentID=",C:C,",","DegreePlanAbbrev=","''",D:D,"''",",","DegreePlanName=","''",E:E,"''","},")</f>
+        <v>new DegreePlan{DegreePlanID=13,DegreeID=2,StudentID=533990,DegreePlanAbbrev=''Summer Off'',DegreePlanName=''Summer Off''},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>12</v>
       </c>
@@ -1351,13 +1362,17 @@
         <v>531366</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlan{DegreePlanID=12,DegreeID=2,StudentID=531366,DegreePlanAbbrev=''No Summer Off'',DegreePlanName=''No Summer Off''},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>13</v>
       </c>
@@ -1368,13 +1383,17 @@
         <v>531366</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlan{DegreePlanID=13,DegreeID=2,StudentID=531366,DegreePlanAbbrev=''Summer Off'',DegreePlanName=''Summer Off''},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>12</v>
       </c>
@@ -1385,13 +1404,17 @@
         <v>533710</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlan{DegreePlanID=12,DegreeID=2,StudentID=533710,DegreePlanAbbrev=''No Summer Off'',DegreePlanName=''No Summer Off''},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>13</v>
       </c>
@@ -1402,13 +1425,17 @@
         <v>533710</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlan{DegreePlanID=13,DegreeID=2,StudentID=533710,DegreePlanAbbrev=''Summer Off'',DegreePlanName=''Summer Off''},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -1419,13 +1446,17 @@
         <v>533626</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlan{DegreePlanID=12,DegreeID=2,StudentID=533626,DegreePlanAbbrev=''No Summer Off'',DegreePlanName=''No Summer Off''},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>13</v>
       </c>
@@ -1436,13 +1467,17 @@
         <v>533626</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlan{DegreePlanID=13,DegreeID=2,StudentID=533626,DegreePlanAbbrev=''Summer Off'',DegreePlanName=''Summer Off''},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12</v>
       </c>
@@ -1453,13 +1488,17 @@
         <v>531383</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlan{DegreePlanID=12,DegreeID=2,StudentID=531383,DegreePlanAbbrev=''No Summer Off'',DegreePlanName=''No Summer Off''},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>13</v>
       </c>
@@ -1470,10 +1509,14 @@
         <v>531383</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlan{DegreePlanID=13,DegreeID=2,StudentID=531383,DegreePlanAbbrev=''Summer Off'',DegreePlanName=''Summer Off''},</v>
       </c>
     </row>
   </sheetData>
@@ -1500,13 +1543,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1">
         <v>919</v>
@@ -1517,10 +1560,10 @@
         <v>533990</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>919569151</v>
@@ -1535,10 +1578,10 @@
         <v>531366</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D3">
         <v>919559663</v>
@@ -1553,10 +1596,10 @@
         <v>533710</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>919570698</v>
@@ -1571,10 +1614,10 @@
         <v>533626</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>919570835</v>
@@ -1589,10 +1632,10 @@
         <v>531383</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>919562271</v>
@@ -1626,16 +1669,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1649,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1663,7 +1706,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1677,7 +1720,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1691,7 +1734,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1705,7 +1748,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1719,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1733,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1747,7 +1790,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1761,7 +1804,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1775,7 +1818,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1789,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1803,7 +1846,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1817,7 +1860,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1831,7 +1874,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1845,7 +1888,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1859,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1873,7 +1916,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1887,7 +1930,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1901,7 +1944,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1915,7 +1958,7 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1929,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1943,7 +1986,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1957,7 +2000,7 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1971,7 +2014,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1985,7 +2028,7 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533626\Documents\44663\MVC-Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s531383\Documents\44663\New MVC\MVC-Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CD17BE-7B9C-42A9-8F3B-DADF5494D075}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -20,17 +21,22 @@
     <sheet name="Student" sheetId="6" r:id="rId6"/>
     <sheet name="StudentTerm" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
   <si>
     <t>ACS+DB</t>
   </si>
@@ -140,21 +146,12 @@
     <t>RequirementID(PK)</t>
   </si>
   <si>
-    <t>RequirementID(FK)</t>
-  </si>
-  <si>
-    <t>DegreePlanID(PK)</t>
-  </si>
-  <si>
     <t>TermID(PK)</t>
   </si>
   <si>
     <t>StudentID(FK)</t>
   </si>
   <si>
-    <t>TermID(FK)</t>
-  </si>
-  <si>
     <t>Hari Priya</t>
   </si>
   <si>
@@ -225,12 +222,15 @@
   </si>
   <si>
     <t>DegreePlanName</t>
+  </si>
+  <si>
+    <t>TermID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -549,7 +549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -566,19 +566,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -592,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E2" t="str">
         <f>D2&amp;$A$1&amp;"="&amp;A2&amp;", "&amp;$B$1&amp;"='"&amp;B2&amp;"', "&amp;$C$1&amp;"='"&amp;C2&amp;"'},"</f>
@@ -605,7 +605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -785,13 +785,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -980,11 +980,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,20 +992,21 @@
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="77.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>12</v>
       </c>
@@ -1015,8 +1016,12 @@
       <c r="C2">
         <v>460</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="str">
+        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanID=",A:A,",","TermID=",B:B,",","RequirementID=",C:C,"},")</f>
+        <v>new DegreePlanTermRequirement{DegreePlanID=12,TermID=1,RequirementID=460},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
@@ -1026,8 +1031,12 @@
       <c r="C3">
         <v>542</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D25" si="0">CONCATENATE("new DegreePlanTermRequirement{","DegreePlanID=",A:A,",","TermID=",B:B,",","RequirementID=",C:C,"},")</f>
+        <v>new DegreePlanTermRequirement{DegreePlanID=12,TermID=1,RequirementID=542},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>12</v>
       </c>
@@ -1037,8 +1046,12 @@
       <c r="C4">
         <v>563</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanID=12,TermID=1,RequirementID=563},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12</v>
       </c>
@@ -1048,8 +1061,12 @@
       <c r="C5">
         <v>560</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanID=12,TermID=2,RequirementID=560},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>12</v>
       </c>
@@ -1059,8 +1076,12 @@
       <c r="C6">
         <v>555</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanID=12,TermID=2,RequirementID=555},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>12</v>
       </c>
@@ -1070,8 +1091,12 @@
       <c r="C7">
         <v>618</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanID=12,TermID=2,RequirementID=618},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -1081,8 +1106,12 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanID=12,TermID=3,RequirementID=1},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>12</v>
       </c>
@@ -1092,8 +1121,12 @@
       <c r="C9">
         <v>664</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanID=12,TermID=3,RequirementID=664},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12</v>
       </c>
@@ -1103,8 +1136,12 @@
       <c r="C10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanID=12,TermID=3,RequirementID=10},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12</v>
       </c>
@@ -1114,8 +1151,12 @@
       <c r="C11">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanID=12,TermID=4,RequirementID=20},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -1125,8 +1166,12 @@
       <c r="C12">
         <v>691</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanID=12,TermID=4,RequirementID=691},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1136,8 +1181,12 @@
       <c r="C13">
         <v>692</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanID=12,TermID=4,RequirementID=692},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1147,8 +1196,12 @@
       <c r="C14">
         <v>460</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanID=13,TermID=1,RequirementID=460},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1158,8 +1211,12 @@
       <c r="C15">
         <v>542</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanID=13,TermID=1,RequirementID=542},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1169,8 +1226,12 @@
       <c r="C16">
         <v>563</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanID=13,TermID=1,RequirementID=563},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1180,8 +1241,12 @@
       <c r="C17">
         <v>560</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanID=13,TermID=2,RequirementID=560},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
@@ -1191,8 +1256,12 @@
       <c r="C18">
         <v>555</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanID=13,TermID=2,RequirementID=555},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
@@ -1202,8 +1271,12 @@
       <c r="C19">
         <v>618</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanID=13,TermID=2,RequirementID=618},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>13</v>
       </c>
@@ -1213,8 +1286,12 @@
       <c r="C20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanID=13,TermID=4,RequirementID=1},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13</v>
       </c>
@@ -1224,8 +1301,12 @@
       <c r="C21">
         <v>664</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanID=13,TermID=4,RequirementID=664},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>13</v>
       </c>
@@ -1235,8 +1316,12 @@
       <c r="C22">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanID=13,TermID=4,RequirementID=10},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>13</v>
       </c>
@@ -1246,8 +1331,12 @@
       <c r="C23">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanID=13,TermID=5,RequirementID=20},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>13</v>
       </c>
@@ -1257,8 +1346,12 @@
       <c r="C24">
         <v>691</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanID=13,TermID=5,RequirementID=691},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
@@ -1267,6 +1360,10 @@
       </c>
       <c r="C25">
         <v>692</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanID=13,TermID=5,RequirementID=692},</v>
       </c>
     </row>
   </sheetData>
@@ -1275,11 +1372,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,19 +1391,19 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1525,7 +1622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1543,13 +1640,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1">
         <v>919</v>
@@ -1560,10 +1657,10 @@
         <v>533990</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>919569151</v>
@@ -1578,10 +1675,10 @@
         <v>531366</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <v>919559663</v>
@@ -1596,10 +1693,10 @@
         <v>533710</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>919570698</v>
@@ -1614,10 +1711,10 @@
         <v>533626</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>919570835</v>
@@ -1632,10 +1729,10 @@
         <v>531383</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>919562271</v>
@@ -1652,7 +1749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1672,10 +1769,10 @@
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>28</v>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s531383\Documents\44663\New MVC\MVC-Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s531383\Documents\MVC-Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CD17BE-7B9C-42A9-8F3B-DADF5494D075}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F337130C-D8C1-432D-86F8-56A12BF3E686}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -984,7 +984,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D25"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s531383\Documents\MVC-Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533990\Documents\44663\MVC-Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F337130C-D8C1-432D-86F8-56A12BF3E686}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="Student" sheetId="6" r:id="rId6"/>
     <sheet name="StudentTerm" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
   <si>
     <t>ACS+DB</t>
   </si>
@@ -225,12 +224,15 @@
   </si>
   <si>
     <t>TermID</t>
+  </si>
+  <si>
+    <t>DegreePlanTermRequirementID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -549,7 +551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -605,7 +607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -768,7 +770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -980,24 +982,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="77.42578125" customWidth="1"/>
+    <col min="4" max="4" width="101.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>62</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1017,13 +1017,13 @@
         <v>460</v>
       </c>
       <c r="D2" t="str">
-        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanID=",A:A,",","TermID=",B:B,",","RequirementID=",C:C,"},")</f>
-        <v>new DegreePlanTermRequirement{DegreePlanID=12,TermID=1,RequirementID=460},</v>
+        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",C:C,"},")</f>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=1,TermID=1,RequirementID=460},</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1032,13 +1032,13 @@
         <v>542</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D25" si="0">CONCATENATE("new DegreePlanTermRequirement{","DegreePlanID=",A:A,",","TermID=",B:B,",","RequirementID=",C:C,"},")</f>
-        <v>new DegreePlanTermRequirement{DegreePlanID=12,TermID=1,RequirementID=542},</v>
+        <f t="shared" ref="D3:D25" si="0">CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",C:C,"},")</f>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=2,TermID=1,RequirementID=542},</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1048,12 +1048,12 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlanTermRequirement{DegreePlanID=12,TermID=1,RequirementID=563},</v>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=3,TermID=1,RequirementID=563},</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1063,12 +1063,12 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlanTermRequirement{DegreePlanID=12,TermID=2,RequirementID=560},</v>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=4,TermID=2,RequirementID=560},</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlanTermRequirement{DegreePlanID=12,TermID=2,RequirementID=555},</v>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=5,TermID=2,RequirementID=555},</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1093,12 +1093,12 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlanTermRequirement{DegreePlanID=12,TermID=2,RequirementID=618},</v>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=6,TermID=2,RequirementID=618},</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1108,12 +1108,12 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlanTermRequirement{DegreePlanID=12,TermID=3,RequirementID=1},</v>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=7,TermID=3,RequirementID=1},</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -1123,12 +1123,12 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlanTermRequirement{DegreePlanID=12,TermID=3,RequirementID=664},</v>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=8,TermID=3,RequirementID=664},</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlanTermRequirement{DegreePlanID=12,TermID=3,RequirementID=10},</v>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=9,TermID=3,RequirementID=10},</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -1153,12 +1153,12 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlanTermRequirement{DegreePlanID=12,TermID=4,RequirementID=20},</v>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=10,TermID=4,RequirementID=20},</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlanTermRequirement{DegreePlanID=12,TermID=4,RequirementID=691},</v>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=11,TermID=4,RequirementID=691},</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlanTermRequirement{DegreePlanID=12,TermID=4,RequirementID=692},</v>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=12,TermID=4,RequirementID=692},</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlanTermRequirement{DegreePlanID=13,TermID=1,RequirementID=460},</v>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=13,TermID=1,RequirementID=460},</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1213,12 +1213,12 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlanTermRequirement{DegreePlanID=13,TermID=1,RequirementID=542},</v>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=14,TermID=1,RequirementID=542},</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1228,12 +1228,12 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlanTermRequirement{DegreePlanID=13,TermID=1,RequirementID=563},</v>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=15,TermID=1,RequirementID=563},</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1243,12 +1243,12 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlanTermRequirement{DegreePlanID=13,TermID=2,RequirementID=560},</v>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=16,TermID=2,RequirementID=560},</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1258,12 +1258,12 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlanTermRequirement{DegreePlanID=13,TermID=2,RequirementID=555},</v>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=17,TermID=2,RequirementID=555},</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1273,12 +1273,12 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlanTermRequirement{DegreePlanID=13,TermID=2,RequirementID=618},</v>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=18,TermID=2,RequirementID=618},</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -1288,12 +1288,12 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlanTermRequirement{DegreePlanID=13,TermID=4,RequirementID=1},</v>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=19,TermID=4,RequirementID=1},</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -1303,12 +1303,12 @@
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlanTermRequirement{DegreePlanID=13,TermID=4,RequirementID=664},</v>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=20,TermID=4,RequirementID=664},</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -1318,12 +1318,12 @@
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlanTermRequirement{DegreePlanID=13,TermID=4,RequirementID=10},</v>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=21,TermID=4,RequirementID=10},</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -1333,12 +1333,12 @@
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlanTermRequirement{DegreePlanID=13,TermID=5,RequirementID=20},</v>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=22,TermID=5,RequirementID=20},</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -1348,12 +1348,12 @@
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlanTermRequirement{DegreePlanID=13,TermID=5,RequirementID=691},</v>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=23,TermID=5,RequirementID=691},</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlanTermRequirement{DegreePlanID=13,TermID=5,RequirementID=692},</v>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=24,TermID=5,RequirementID=692},</v>
       </c>
     </row>
   </sheetData>
@@ -1372,11 +1372,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1424,12 +1424,12 @@
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE("new DegreePlan{","DegreePlanID=",A:A,",","DegreeID=",B:B,",","StudentID=",C:C,",","DegreePlanAbbrev=","''",D:D,"''",",","DegreePlanName=","''",E:E,"''","},")</f>
-        <v>new DegreePlan{DegreePlanID=12,DegreeID=2,StudentID=533990,DegreePlanAbbrev=''No Summer Off'',DegreePlanName=''No Summer Off''},</v>
+        <v>new DegreePlan{DegreePlanID=1,DegreeID=2,StudentID=533990,DegreePlanAbbrev=''No Summer Off'',DegreePlanName=''No Summer Off''},</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1445,12 +1445,12 @@
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F11" si="0">CONCATENATE("new DegreePlan{","DegreePlanID=",A:A,",","DegreeID=",B:B,",","StudentID=",C:C,",","DegreePlanAbbrev=","''",D:D,"''",",","DegreePlanName=","''",E:E,"''","},")</f>
-        <v>new DegreePlan{DegreePlanID=13,DegreeID=2,StudentID=533990,DegreePlanAbbrev=''Summer Off'',DegreePlanName=''Summer Off''},</v>
+        <v>new DegreePlan{DegreePlanID=2,DegreeID=2,StudentID=533990,DegreePlanAbbrev=''Summer Off'',DegreePlanName=''Summer Off''},</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1466,12 +1466,12 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlan{DegreePlanID=12,DegreeID=2,StudentID=531366,DegreePlanAbbrev=''No Summer Off'',DegreePlanName=''No Summer Off''},</v>
+        <v>new DegreePlan{DegreePlanID=3,DegreeID=2,StudentID=531366,DegreePlanAbbrev=''No Summer Off'',DegreePlanName=''No Summer Off''},</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1487,12 +1487,12 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlan{DegreePlanID=13,DegreeID=2,StudentID=531366,DegreePlanAbbrev=''Summer Off'',DegreePlanName=''Summer Off''},</v>
+        <v>new DegreePlan{DegreePlanID=4,DegreeID=2,StudentID=531366,DegreePlanAbbrev=''Summer Off'',DegreePlanName=''Summer Off''},</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1508,12 +1508,12 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlan{DegreePlanID=12,DegreeID=2,StudentID=533710,DegreePlanAbbrev=''No Summer Off'',DegreePlanName=''No Summer Off''},</v>
+        <v>new DegreePlan{DegreePlanID=5,DegreeID=2,StudentID=533710,DegreePlanAbbrev=''No Summer Off'',DegreePlanName=''No Summer Off''},</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlan{DegreePlanID=13,DegreeID=2,StudentID=533710,DegreePlanAbbrev=''Summer Off'',DegreePlanName=''Summer Off''},</v>
+        <v>new DegreePlan{DegreePlanID=6,DegreeID=2,StudentID=533710,DegreePlanAbbrev=''Summer Off'',DegreePlanName=''Summer Off''},</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1550,12 +1550,12 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlan{DegreePlanID=12,DegreeID=2,StudentID=533626,DegreePlanAbbrev=''No Summer Off'',DegreePlanName=''No Summer Off''},</v>
+        <v>new DegreePlan{DegreePlanID=7,DegreeID=2,StudentID=533626,DegreePlanAbbrev=''No Summer Off'',DegreePlanName=''No Summer Off''},</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1571,12 +1571,12 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlan{DegreePlanID=13,DegreeID=2,StudentID=533626,DegreePlanAbbrev=''Summer Off'',DegreePlanName=''Summer Off''},</v>
+        <v>new DegreePlan{DegreePlanID=8,DegreeID=2,StudentID=533626,DegreePlanAbbrev=''Summer Off'',DegreePlanName=''Summer Off''},</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1592,12 +1592,12 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlan{DegreePlanID=12,DegreeID=2,StudentID=531383,DegreePlanAbbrev=''No Summer Off'',DegreePlanName=''No Summer Off''},</v>
+        <v>new DegreePlan{DegreePlanID=9,DegreeID=2,StudentID=531383,DegreePlanAbbrev=''No Summer Off'',DegreePlanName=''No Summer Off''},</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlan{DegreePlanID=13,DegreeID=2,StudentID=531383,DegreePlanAbbrev=''Summer Off'',DegreePlanName=''Summer Off''},</v>
+        <v>new DegreePlan{DegreePlanID=10,DegreeID=2,StudentID=531383,DegreePlanAbbrev=''Summer Off'',DegreePlanName=''Summer Off''},</v>
       </c>
     </row>
   </sheetData>
@@ -1622,7 +1622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1749,11 +1749,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>531366</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>531366</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>531366</v>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>531366</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>531366</v>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>533710</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>533710</v>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>533710</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>533710</v>
@@ -1976,7 +1976,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>533710</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>533626</v>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>533626</v>
@@ -2018,7 +2018,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>533626</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>533626</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>533626</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>531383</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>531383</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>531383</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>531383</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>531383</v>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533990\Documents\44663\MVC-Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531366\Documents\44663\MVC-Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
   <si>
     <t>ACS+DB</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>DegreePlanTermRequirementID</t>
+  </si>
+  <si>
+    <t>DegreePlanId</t>
   </si>
 </sst>
 </file>
@@ -560,6 +563,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
@@ -983,19 +987,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="101.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="101.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -1003,10 +1010,13 @@
         <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1014,14 +1024,17 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>460</v>
       </c>
-      <c r="D2" t="str">
-        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",C:C,"},")</f>
+      <c r="E2" t="str">
+        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
         <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=1,TermID=1,RequirementID=460},</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1029,14 +1042,17 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>542</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D25" si="0">CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",C:C,"},")</f>
+      <c r="E3" t="str">
+        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
         <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=2,TermID=1,RequirementID=542},</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1044,14 +1060,17 @@
         <v>1</v>
       </c>
       <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>563</v>
       </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
+      <c r="E4" t="str">
+        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
         <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=3,TermID=1,RequirementID=563},</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1059,14 +1078,17 @@
         <v>2</v>
       </c>
       <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>560</v>
       </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
+      <c r="E5" t="str">
+        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
         <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=4,TermID=2,RequirementID=560},</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1074,14 +1096,17 @@
         <v>2</v>
       </c>
       <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>555</v>
       </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
+      <c r="E6" t="str">
+        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
         <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=5,TermID=2,RequirementID=555},</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1089,14 +1114,17 @@
         <v>2</v>
       </c>
       <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>618</v>
       </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
+      <c r="E7" t="str">
+        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
         <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=6,TermID=2,RequirementID=618},</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1106,12 +1134,15 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="str">
+        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
         <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=7,TermID=3,RequirementID=1},</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1119,14 +1150,17 @@
         <v>3</v>
       </c>
       <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>664</v>
       </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
+      <c r="E9" t="str">
+        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
         <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=8,TermID=3,RequirementID=664},</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1134,14 +1168,17 @@
         <v>3</v>
       </c>
       <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>10</v>
       </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
+      <c r="E10" t="str">
+        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
         <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=9,TermID=3,RequirementID=10},</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1149,14 +1186,17 @@
         <v>4</v>
       </c>
       <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>20</v>
       </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
+      <c r="E11" t="str">
+        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
         <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=10,TermID=4,RequirementID=20},</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1164,14 +1204,17 @@
         <v>4</v>
       </c>
       <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
         <v>691</v>
       </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
+      <c r="E12" t="str">
+        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
         <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=11,TermID=4,RequirementID=691},</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1179,14 +1222,17 @@
         <v>4</v>
       </c>
       <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
         <v>692</v>
       </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E13" t="str">
+        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
         <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=12,TermID=4,RequirementID=692},</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1194,14 +1240,17 @@
         <v>1</v>
       </c>
       <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
         <v>460</v>
       </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
+      <c r="E14" t="str">
+        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
         <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=13,TermID=1,RequirementID=460},</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1209,14 +1258,17 @@
         <v>1</v>
       </c>
       <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
         <v>542</v>
       </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
+      <c r="E15" t="str">
+        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
         <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=14,TermID=1,RequirementID=542},</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1224,14 +1276,17 @@
         <v>1</v>
       </c>
       <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
         <v>563</v>
       </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
+      <c r="E16" t="str">
+        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
         <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=15,TermID=1,RequirementID=563},</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1239,14 +1294,17 @@
         <v>2</v>
       </c>
       <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
         <v>560</v>
       </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
+      <c r="E17" t="str">
+        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
         <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=16,TermID=2,RequirementID=560},</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1254,14 +1312,17 @@
         <v>2</v>
       </c>
       <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
         <v>555</v>
       </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
+      <c r="E18" t="str">
+        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
         <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=17,TermID=2,RequirementID=555},</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1269,14 +1330,17 @@
         <v>2</v>
       </c>
       <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
         <v>618</v>
       </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
+      <c r="E19" t="str">
+        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
         <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=18,TermID=2,RequirementID=618},</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1284,14 +1348,17 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="str">
+        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
         <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=19,TermID=4,RequirementID=1},</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1299,14 +1366,17 @@
         <v>4</v>
       </c>
       <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
         <v>664</v>
       </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
+      <c r="E21" t="str">
+        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
         <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=20,TermID=4,RequirementID=664},</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1314,14 +1384,17 @@
         <v>4</v>
       </c>
       <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
         <v>10</v>
       </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
+      <c r="E22" t="str">
+        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
         <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=21,TermID=4,RequirementID=10},</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1329,14 +1402,17 @@
         <v>5</v>
       </c>
       <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
         <v>20</v>
       </c>
-      <c r="D23" t="str">
-        <f t="shared" si="0"/>
+      <c r="E23" t="str">
+        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
         <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=22,TermID=5,RequirementID=20},</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1344,14 +1420,17 @@
         <v>5</v>
       </c>
       <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
         <v>691</v>
       </c>
-      <c r="D24" t="str">
-        <f t="shared" si="0"/>
+      <c r="E24" t="str">
+        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
         <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=23,TermID=5,RequirementID=691},</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1359,10 +1438,13 @@
         <v>5</v>
       </c>
       <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
         <v>692</v>
       </c>
-      <c r="D25" t="str">
-        <f t="shared" si="0"/>
+      <c r="E25" t="str">
+        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
         <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=24,TermID=5,RequirementID=692},</v>
       </c>
     </row>
@@ -1626,7 +1708,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1752,13 +1834,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -620,6 +620,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
@@ -987,10 +988,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,7 +1000,7 @@
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="101.85546875" customWidth="1"/>
+    <col min="5" max="5" width="112.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1030,8 +1031,8 @@
         <v>460</v>
       </c>
       <c r="E2" t="str">
-        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
-        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=1,TermID=1,RequirementID=460},</v>
+        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","DegreePlanID=",C:C,",","RequirementID=",D:D,"},")</f>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=1,TermID=1,DegreePlanID=1,RequirementID=460},</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1048,8 +1049,8 @@
         <v>542</v>
       </c>
       <c r="E3" t="str">
-        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
-        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=2,TermID=1,RequirementID=542},</v>
+        <f t="shared" ref="E3:E66" si="0">CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","DegreePlanID=",C:C,",","RequirementID=",D:D,"},")</f>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=2,TermID=1,DegreePlanID=1,RequirementID=542},</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1066,8 +1067,8 @@
         <v>563</v>
       </c>
       <c r="E4" t="str">
-        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
-        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=3,TermID=1,RequirementID=563},</v>
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=3,TermID=1,DegreePlanID=1,RequirementID=563},</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1084,8 +1085,8 @@
         <v>560</v>
       </c>
       <c r="E5" t="str">
-        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
-        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=4,TermID=2,RequirementID=560},</v>
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=4,TermID=2,DegreePlanID=1,RequirementID=560},</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1102,8 +1103,8 @@
         <v>555</v>
       </c>
       <c r="E6" t="str">
-        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
-        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=5,TermID=2,RequirementID=555},</v>
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=5,TermID=2,DegreePlanID=1,RequirementID=555},</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1120,8 +1121,8 @@
         <v>618</v>
       </c>
       <c r="E7" t="str">
-        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
-        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=6,TermID=2,RequirementID=618},</v>
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=6,TermID=2,DegreePlanID=1,RequirementID=618},</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1138,8 +1139,8 @@
         <v>1</v>
       </c>
       <c r="E8" t="str">
-        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
-        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=7,TermID=3,RequirementID=1},</v>
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=7,TermID=3,DegreePlanID=1,RequirementID=1},</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1156,8 +1157,8 @@
         <v>664</v>
       </c>
       <c r="E9" t="str">
-        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
-        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=8,TermID=3,RequirementID=664},</v>
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=8,TermID=3,DegreePlanID=1,RequirementID=664},</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1174,8 +1175,8 @@
         <v>10</v>
       </c>
       <c r="E10" t="str">
-        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
-        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=9,TermID=3,RequirementID=10},</v>
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=9,TermID=3,DegreePlanID=1,RequirementID=10},</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1192,8 +1193,8 @@
         <v>20</v>
       </c>
       <c r="E11" t="str">
-        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
-        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=10,TermID=4,RequirementID=20},</v>
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=10,TermID=4,DegreePlanID=1,RequirementID=20},</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1210,8 +1211,8 @@
         <v>691</v>
       </c>
       <c r="E12" t="str">
-        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
-        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=11,TermID=4,RequirementID=691},</v>
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=11,TermID=4,DegreePlanID=1,RequirementID=691},</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1228,8 +1229,8 @@
         <v>692</v>
       </c>
       <c r="E13" t="str">
-        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
-        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=12,TermID=4,RequirementID=692},</v>
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=12,TermID=4,DegreePlanID=1,RequirementID=692},</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1246,8 +1247,8 @@
         <v>460</v>
       </c>
       <c r="E14" t="str">
-        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
-        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=13,TermID=1,RequirementID=460},</v>
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=13,TermID=1,DegreePlanID=2,RequirementID=460},</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1264,8 +1265,8 @@
         <v>542</v>
       </c>
       <c r="E15" t="str">
-        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
-        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=14,TermID=1,RequirementID=542},</v>
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=14,TermID=1,DegreePlanID=2,RequirementID=542},</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1282,8 +1283,8 @@
         <v>563</v>
       </c>
       <c r="E16" t="str">
-        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
-        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=15,TermID=1,RequirementID=563},</v>
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=15,TermID=1,DegreePlanID=2,RequirementID=563},</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1300,8 +1301,8 @@
         <v>560</v>
       </c>
       <c r="E17" t="str">
-        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
-        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=16,TermID=2,RequirementID=560},</v>
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=16,TermID=2,DegreePlanID=2,RequirementID=560},</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1318,8 +1319,8 @@
         <v>555</v>
       </c>
       <c r="E18" t="str">
-        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
-        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=17,TermID=2,RequirementID=555},</v>
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=17,TermID=2,DegreePlanID=2,RequirementID=555},</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1336,8 +1337,8 @@
         <v>618</v>
       </c>
       <c r="E19" t="str">
-        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
-        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=18,TermID=2,RequirementID=618},</v>
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=18,TermID=2,DegreePlanID=2,RequirementID=618},</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1354,8 +1355,8 @@
         <v>1</v>
       </c>
       <c r="E20" t="str">
-        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
-        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=19,TermID=4,RequirementID=1},</v>
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=19,TermID=4,DegreePlanID=2,RequirementID=1},</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1372,8 +1373,8 @@
         <v>664</v>
       </c>
       <c r="E21" t="str">
-        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
-        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=20,TermID=4,RequirementID=664},</v>
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=20,TermID=4,DegreePlanID=2,RequirementID=664},</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1390,8 +1391,8 @@
         <v>10</v>
       </c>
       <c r="E22" t="str">
-        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
-        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=21,TermID=4,RequirementID=10},</v>
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=21,TermID=4,DegreePlanID=2,RequirementID=10},</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1408,8 +1409,8 @@
         <v>20</v>
       </c>
       <c r="E23" t="str">
-        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
-        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=22,TermID=5,RequirementID=20},</v>
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=22,TermID=5,DegreePlanID=2,RequirementID=20},</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1426,8 +1427,8 @@
         <v>691</v>
       </c>
       <c r="E24" t="str">
-        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
-        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=23,TermID=5,RequirementID=691},</v>
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=23,TermID=5,DegreePlanID=2,RequirementID=691},</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1444,8 +1445,1736 @@
         <v>692</v>
       </c>
       <c r="E25" t="str">
-        <f>CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","RequirementID=",D:D,"},")</f>
-        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=24,TermID=5,RequirementID=692},</v>
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=24,TermID=5,DegreePlanID=2,RequirementID=692},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>460</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=25,TermID=1,DegreePlanID=3,RequirementID=460},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>542</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=26,TermID=1,DegreePlanID=3,RequirementID=542},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>563</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=27,TermID=1,DegreePlanID=3,RequirementID=563},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>560</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=28,TermID=2,DegreePlanID=3,RequirementID=560},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>555</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=29,TermID=2,DegreePlanID=3,RequirementID=555},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>618</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=30,TermID=2,DegreePlanID=3,RequirementID=618},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=31,TermID=3,DegreePlanID=3,RequirementID=1},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>664</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=32,TermID=3,DegreePlanID=3,RequirementID=664},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=33,TermID=3,DegreePlanID=3,RequirementID=10},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=34,TermID=4,DegreePlanID=3,RequirementID=20},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>691</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=35,TermID=4,DegreePlanID=3,RequirementID=691},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>692</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=36,TermID=4,DegreePlanID=3,RequirementID=692},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>460</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=37,TermID=1,DegreePlanID=4,RequirementID=460},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>542</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=38,TermID=1,DegreePlanID=4,RequirementID=542},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>563</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=39,TermID=1,DegreePlanID=4,RequirementID=563},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>560</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=40,TermID=2,DegreePlanID=4,RequirementID=560},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>555</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=41,TermID=2,DegreePlanID=4,RequirementID=555},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>618</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=42,TermID=2,DegreePlanID=4,RequirementID=618},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=43,TermID=4,DegreePlanID=4,RequirementID=1},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>664</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=44,TermID=4,DegreePlanID=4,RequirementID=664},</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=45,TermID=4,DegreePlanID=4,RequirementID=10},</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>20</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=46,TermID=5,DegreePlanID=4,RequirementID=20},</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>691</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=47,TermID=5,DegreePlanID=4,RequirementID=691},</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>692</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=48,TermID=5,DegreePlanID=4,RequirementID=692},</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>460</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=49,TermID=1,DegreePlanID=5,RequirementID=460},</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>542</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=50,TermID=1,DegreePlanID=5,RequirementID=542},</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>563</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=51,TermID=1,DegreePlanID=5,RequirementID=563},</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>560</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=52,TermID=2,DegreePlanID=5,RequirementID=560},</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>555</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=53,TermID=2,DegreePlanID=5,RequirementID=555},</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>618</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=54,TermID=2,DegreePlanID=5,RequirementID=618},</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=55,TermID=3,DegreePlanID=5,RequirementID=1},</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>664</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=56,TermID=3,DegreePlanID=5,RequirementID=664},</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=57,TermID=3,DegreePlanID=5,RequirementID=10},</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>20</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=58,TermID=4,DegreePlanID=5,RequirementID=20},</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>691</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=59,TermID=4,DegreePlanID=5,RequirementID=691},</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>692</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=60,TermID=4,DegreePlanID=5,RequirementID=692},</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>6</v>
+      </c>
+      <c r="D62">
+        <v>460</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=61,TermID=1,DegreePlanID=6,RequirementID=460},</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>6</v>
+      </c>
+      <c r="D63">
+        <v>542</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=62,TermID=1,DegreePlanID=6,RequirementID=542},</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>6</v>
+      </c>
+      <c r="D64">
+        <v>563</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=63,TermID=1,DegreePlanID=6,RequirementID=563},</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <v>560</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=64,TermID=2,DegreePlanID=6,RequirementID=560},</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>6</v>
+      </c>
+      <c r="D66">
+        <v>555</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=65,TermID=2,DegreePlanID=6,RequirementID=555},</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+      <c r="D67">
+        <v>618</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E121" si="1">CONCATENATE("new DegreePlanTermRequirement{","DegreePlanTermRequirementID=",A:A,",","TermID=",B:B,",","DegreePlanID=",C:C,",","RequirementID=",D:D,"},")</f>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=66,TermID=2,DegreePlanID=6,RequirementID=618},</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>6</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=67,TermID=4,DegreePlanID=6,RequirementID=1},</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+      <c r="D69">
+        <v>664</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=68,TermID=4,DegreePlanID=6,RequirementID=664},</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>6</v>
+      </c>
+      <c r="D70">
+        <v>10</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=69,TermID=4,DegreePlanID=6,RequirementID=10},</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>6</v>
+      </c>
+      <c r="D71">
+        <v>20</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=70,TermID=5,DegreePlanID=6,RequirementID=20},</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>6</v>
+      </c>
+      <c r="D72">
+        <v>691</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=71,TermID=5,DegreePlanID=6,RequirementID=691},</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+      <c r="D73">
+        <v>692</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=72,TermID=5,DegreePlanID=6,RequirementID=692},</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>7</v>
+      </c>
+      <c r="D74">
+        <v>460</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=73,TermID=1,DegreePlanID=7,RequirementID=460},</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>7</v>
+      </c>
+      <c r="D75">
+        <v>542</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=74,TermID=1,DegreePlanID=7,RequirementID=542},</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>7</v>
+      </c>
+      <c r="D76">
+        <v>563</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=75,TermID=1,DegreePlanID=7,RequirementID=563},</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>7</v>
+      </c>
+      <c r="D77">
+        <v>560</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=76,TermID=2,DegreePlanID=7,RequirementID=560},</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <v>555</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=77,TermID=2,DegreePlanID=7,RequirementID=555},</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>7</v>
+      </c>
+      <c r="D79">
+        <v>618</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=78,TermID=2,DegreePlanID=7,RequirementID=618},</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>7</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=79,TermID=3,DegreePlanID=7,RequirementID=1},</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>7</v>
+      </c>
+      <c r="D81">
+        <v>664</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=80,TermID=3,DegreePlanID=7,RequirementID=664},</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>7</v>
+      </c>
+      <c r="D82">
+        <v>10</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=81,TermID=3,DegreePlanID=7,RequirementID=10},</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <v>7</v>
+      </c>
+      <c r="D83">
+        <v>20</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=82,TermID=4,DegreePlanID=7,RequirementID=20},</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>7</v>
+      </c>
+      <c r="D84">
+        <v>691</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=83,TermID=4,DegreePlanID=7,RequirementID=691},</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>7</v>
+      </c>
+      <c r="D85">
+        <v>692</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=84,TermID=4,DegreePlanID=7,RequirementID=692},</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>8</v>
+      </c>
+      <c r="D86">
+        <v>460</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=85,TermID=1,DegreePlanID=8,RequirementID=460},</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>8</v>
+      </c>
+      <c r="D87">
+        <v>542</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=86,TermID=1,DegreePlanID=8,RequirementID=542},</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>8</v>
+      </c>
+      <c r="D88">
+        <v>563</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=87,TermID=1,DegreePlanID=8,RequirementID=563},</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>8</v>
+      </c>
+      <c r="D89">
+        <v>560</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=88,TermID=2,DegreePlanID=8,RequirementID=560},</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>8</v>
+      </c>
+      <c r="D90">
+        <v>555</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=89,TermID=2,DegreePlanID=8,RequirementID=555},</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>8</v>
+      </c>
+      <c r="D91">
+        <v>618</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=90,TermID=2,DegreePlanID=8,RequirementID=618},</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>8</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=91,TermID=4,DegreePlanID=8,RequirementID=1},</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>8</v>
+      </c>
+      <c r="D93">
+        <v>664</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=92,TermID=4,DegreePlanID=8,RequirementID=664},</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>8</v>
+      </c>
+      <c r="D94">
+        <v>10</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=93,TermID=4,DegreePlanID=8,RequirementID=10},</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>8</v>
+      </c>
+      <c r="D95">
+        <v>20</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=94,TermID=5,DegreePlanID=8,RequirementID=20},</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>8</v>
+      </c>
+      <c r="D96">
+        <v>691</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=95,TermID=5,DegreePlanID=8,RequirementID=691},</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>8</v>
+      </c>
+      <c r="D97">
+        <v>692</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=96,TermID=5,DegreePlanID=8,RequirementID=692},</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>9</v>
+      </c>
+      <c r="D98">
+        <v>460</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=97,TermID=1,DegreePlanID=9,RequirementID=460},</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>9</v>
+      </c>
+      <c r="D99">
+        <v>542</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=98,TermID=1,DegreePlanID=9,RequirementID=542},</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>9</v>
+      </c>
+      <c r="D100">
+        <v>563</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=99,TermID=1,DegreePlanID=9,RequirementID=563},</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>9</v>
+      </c>
+      <c r="D101">
+        <v>560</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=100,TermID=2,DegreePlanID=9,RequirementID=560},</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>9</v>
+      </c>
+      <c r="D102">
+        <v>555</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=101,TermID=2,DegreePlanID=9,RequirementID=555},</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>9</v>
+      </c>
+      <c r="D103">
+        <v>618</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=102,TermID=2,DegreePlanID=9,RequirementID=618},</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>9</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=103,TermID=3,DegreePlanID=9,RequirementID=1},</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>9</v>
+      </c>
+      <c r="D105">
+        <v>664</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=104,TermID=3,DegreePlanID=9,RequirementID=664},</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>9</v>
+      </c>
+      <c r="D106">
+        <v>10</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=105,TermID=3,DegreePlanID=9,RequirementID=10},</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="C107">
+        <v>9</v>
+      </c>
+      <c r="D107">
+        <v>20</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=106,TermID=4,DegreePlanID=9,RequirementID=20},</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>9</v>
+      </c>
+      <c r="D108">
+        <v>691</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=107,TermID=4,DegreePlanID=9,RequirementID=691},</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="C109">
+        <v>9</v>
+      </c>
+      <c r="D109">
+        <v>692</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=108,TermID=4,DegreePlanID=9,RequirementID=692},</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>10</v>
+      </c>
+      <c r="D110">
+        <v>460</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=109,TermID=1,DegreePlanID=10,RequirementID=460},</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>10</v>
+      </c>
+      <c r="D111">
+        <v>542</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=110,TermID=1,DegreePlanID=10,RequirementID=542},</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>10</v>
+      </c>
+      <c r="D112">
+        <v>563</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=111,TermID=1,DegreePlanID=10,RequirementID=563},</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="C113">
+        <v>10</v>
+      </c>
+      <c r="D113">
+        <v>560</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=112,TermID=2,DegreePlanID=10,RequirementID=560},</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <v>10</v>
+      </c>
+      <c r="D114">
+        <v>555</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=113,TermID=2,DegreePlanID=10,RequirementID=555},</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>10</v>
+      </c>
+      <c r="D115">
+        <v>618</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=114,TermID=2,DegreePlanID=10,RequirementID=618},</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>10</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=115,TermID=4,DegreePlanID=10,RequirementID=1},</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>10</v>
+      </c>
+      <c r="D117">
+        <v>664</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=116,TermID=4,DegreePlanID=10,RequirementID=664},</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>10</v>
+      </c>
+      <c r="D118">
+        <v>10</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=117,TermID=4,DegreePlanID=10,RequirementID=10},</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>5</v>
+      </c>
+      <c r="C119">
+        <v>10</v>
+      </c>
+      <c r="D119">
+        <v>20</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=118,TermID=5,DegreePlanID=10,RequirementID=20},</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>5</v>
+      </c>
+      <c r="C120">
+        <v>10</v>
+      </c>
+      <c r="D120">
+        <v>691</v>
+      </c>
+      <c r="E120" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=119,TermID=5,DegreePlanID=10,RequirementID=691},</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>5</v>
+      </c>
+      <c r="C121">
+        <v>10</v>
+      </c>
+      <c r="D121">
+        <v>692</v>
+      </c>
+      <c r="E121" t="str">
+        <f t="shared" si="1"/>
+        <v>new DegreePlanTermRequirement{DegreePlanTermRequirementID=120,TermID=5,DegreePlanID=10,RequirementID=692},</v>
       </c>
     </row>
   </sheetData>
@@ -1458,7 +3187,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1708,7 +3437,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
